--- a/记录详情.xlsx
+++ b/记录详情.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13980"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>记一笔</t>
   </si>
@@ -46,18 +51,124 @@
   <si>
     <t>消费时间</t>
   </si>
+  <si>
+    <t>记一笔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费时间：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间插件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起AA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账单名称：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账单描述：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末吃饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨佳买的水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记账时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账单名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账单描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州拉面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼下兰州拉面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.05.24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,151 +185,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,192 +218,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FF3366FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -449,66 +254,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -573,50 +318,68 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,316 +387,228 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -947,7 +622,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -979,6 +654,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1000,7 +676,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2"/>
         <xdr:cNvSpPr/>
@@ -1152,7 +828,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
@@ -1304,7 +980,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="矩形 4"/>
         <xdr:cNvSpPr/>
@@ -1456,7 +1132,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="矩形 5"/>
         <xdr:cNvSpPr/>
@@ -1608,7 +1284,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="矩形 6"/>
         <xdr:cNvSpPr/>
@@ -1760,7 +1436,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
@@ -1912,7 +1588,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="矩形 8"/>
         <xdr:cNvSpPr/>
@@ -2064,7 +1740,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
@@ -2216,7 +1892,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="矩形 10"/>
         <xdr:cNvSpPr/>
@@ -2368,7 +2044,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
@@ -2520,7 +2196,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
@@ -2672,7 +2348,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
@@ -2824,7 +2500,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="矩形 14"/>
         <xdr:cNvSpPr/>
@@ -2976,7 +2652,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="矩形 15"/>
         <xdr:cNvSpPr/>
@@ -3128,7 +2804,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="矩形 16"/>
         <xdr:cNvSpPr/>
@@ -3280,7 +2956,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="矩形 17"/>
         <xdr:cNvSpPr/>
@@ -3432,7 +3108,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="矩形 18"/>
         <xdr:cNvSpPr/>
@@ -3584,7 +3260,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="矩形 19"/>
         <xdr:cNvSpPr/>
@@ -3736,7 +3412,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="矩形 20"/>
         <xdr:cNvSpPr/>
@@ -3888,7 +3564,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="矩形 21"/>
         <xdr:cNvSpPr/>
@@ -4040,7 +3716,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="矩形 22"/>
         <xdr:cNvSpPr/>
@@ -4192,7 +3868,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="矩形 23"/>
         <xdr:cNvSpPr/>
@@ -4344,7 +4020,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="矩形 24"/>
         <xdr:cNvSpPr/>
@@ -4743,63 +4419,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:U14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="22.5" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:20">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:21">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="38"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="M1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="2:20">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+    <row r="2" spans="2:21">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
-    <row r="3" ht="14.25"/>
+    <row r="3" spans="2:21" ht="15" thickBot="1"/>
     <row r="4" spans="2:21">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="4"/>
@@ -4807,10 +4489,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4819,259 +4501,559 @@
         <v>4</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S4" s="4"/>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="16"/>
+      <c r="U4" s="8"/>
     </row>
-    <row r="5" ht="14.25" spans="2:21">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+    <row r="5" spans="2:21" ht="15" thickBot="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="13"/>
       <c r="L5" s="14"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="2"/>
+      <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="P6" s="8" t="s">
+      <c r="N6" s="2"/>
+      <c r="P6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="G17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="L17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="49">
+        <v>2017.0525</v>
+      </c>
+      <c r="Q19" s="49"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="G23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="L24" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="L25" s="52"/>
+      <c r="M25" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2017.0523000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="C31" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="52"/>
+      <c r="D34" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="50"/>
+      <c r="H34" s="51"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="L1:M2"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="I1:J2"/>
+  <mergeCells count="42">
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="L17:Q18"/>
+    <mergeCell ref="L21:Q23"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G17:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="S1:T2"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:E5"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="P4:Q5"/>
     <mergeCell ref="R4:S5"/>
@@ -5079,25 +5061,38 @@
     <mergeCell ref="I4:J5"/>
     <mergeCell ref="K4:L5"/>
     <mergeCell ref="M4:N5"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="I1:J2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/记录详情.xlsx
+++ b/记录详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>记一笔</t>
   </si>
@@ -163,6 +163,26 @@
     <t>AA时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>分账单金额：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账单金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -432,13 +452,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,12 +479,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,72 +617,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,40 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4422,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4436,103 +4470,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="50"/>
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="M1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="Q1" s="15"/>
+      <c r="S1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="3"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="2:21">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1"/>
     <row r="4" spans="2:21">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="39"/>
+      <c r="I4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="P4" s="6" t="s">
+      <c r="N4" s="39"/>
+      <c r="P4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="40"/>
+      <c r="R4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="7" t="s">
+      <c r="S4" s="17"/>
+      <c r="T4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="8"/>
+      <c r="U4" s="42"/>
     </row>
     <row r="5" spans="2:21" ht="15" thickBot="1">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="10"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="44"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="1" t="s">
@@ -4744,163 +4778,172 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="24" t="s">
+    <row r="17" spans="2:18">
+      <c r="B17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="G17" s="15" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="G17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="L17" s="41" t="s">
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="L17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
+    <row r="18" spans="2:18">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="2:18">
+      <c r="B19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="G19" s="3" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="G19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="L19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="48" t="s">
+      <c r="M19" s="15"/>
+      <c r="N19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="49" t="s">
+      <c r="O19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="7">
         <v>2017.0525</v>
       </c>
-      <c r="Q19" s="49"/>
+      <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="2:18">
+      <c r="B20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="G20" s="3" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="G20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="3" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="L20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="48" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="O20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="43" t="s">
+    <row r="21" spans="2:18">
+      <c r="B21" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="L21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
     </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="2:18">
+      <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
+      <c r="E22" s="32"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
     </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="2:18">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="G23" s="16" t="s">
+      <c r="E23" s="27"/>
+      <c r="G23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
+      <c r="J23" s="30"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="2:17">
-      <c r="L24" s="52" t="s">
+    <row r="24" spans="2:18">
+      <c r="L24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="52" t="s">
+      <c r="M24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -4915,10 +4958,13 @@
       <c r="Q24" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="R24" s="53" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="25" spans="2:17">
-      <c r="L25" s="52"/>
-      <c r="M25" s="52" t="s">
+    <row r="25" spans="2:18">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4933,30 +4979,33 @@
       <c r="Q25" s="2">
         <v>2017.0523000000001</v>
       </c>
+      <c r="R25" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="31" spans="2:17">
-      <c r="C31" s="41" t="s">
+    <row r="31" spans="2:18">
+      <c r="C31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="2:17">
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+    <row r="32" spans="2:18">
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -4965,12 +5014,12 @@
       <c r="F33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="47"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="52"/>
-      <c r="D34" s="52" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4979,54 +5028,80 @@
       <c r="F34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="L21:R23"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:U5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="C31:H32"/>
     <mergeCell ref="L17:Q18"/>
-    <mergeCell ref="L21:Q23"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="B4:C5"/>
@@ -5040,32 +5115,6 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:U5"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="L1:M2"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="I1:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/记录详情.xlsx
+++ b/记录详情.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>记一笔</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>￥18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> 分账单金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账单金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分账单金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,27 +515,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,81 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4456,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:R23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4470,103 +4482,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="J1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="M1" s="18"/>
+      <c r="P1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="S1" s="15" t="s">
+      <c r="Q1" s="18"/>
+      <c r="S1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="2:21">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1"/>
     <row r="4" spans="2:21">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="39" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="I4" s="40" t="s">
+      <c r="G4" s="19"/>
+      <c r="I4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="45" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="P4" s="40" t="s">
+      <c r="N4" s="19"/>
+      <c r="P4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="17" t="s">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="41" t="s">
+      <c r="S4" s="21"/>
+      <c r="T4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="42"/>
+      <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:21" ht="15" thickBot="1">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="44"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="25"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="1" t="s">
@@ -4584,7 +4596,9 @@
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4600,7 +4614,9 @@
       <c r="M6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4616,7 +4632,9 @@
       <c r="T6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="2"/>
@@ -4779,60 +4797,60 @@
       <c r="U14" s="2"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="G17" s="28" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="G17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="L17" s="11" t="s">
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="G19" s="15" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="G19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="L19" s="15" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="L19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="15"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="6" t="s">
         <v>21</v>
       </c>
@@ -4845,22 +4863,22 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="G20" s="15" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="G20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="L20" s="15" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="L20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="15"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="6" t="s">
         <v>22</v>
       </c>
@@ -4873,71 +4891,71 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="L21" s="13" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="L21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
+      <c r="E22" s="37"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="G23" s="29" t="s">
+      <c r="E23" s="52"/>
+      <c r="G23" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30" t="s">
+      <c r="H23" s="38"/>
+      <c r="I23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="J23" s="39"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="2:18">
       <c r="L24" s="10" t="s">
@@ -4958,7 +4976,7 @@
       <c r="Q24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R24" s="53" t="s">
+      <c r="R24" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4984,22 +5002,22 @@
       </c>
     </row>
     <row r="31" spans="2:18">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="10" t="s">
@@ -5073,36 +5091,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="L21:R23"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="L1:M2"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:U5"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="L17:Q18"/>
-    <mergeCell ref="L20:M20"/>
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="L19:M19"/>
@@ -5115,6 +5103,36 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="L17:Q18"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="T4:U5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="L21:R23"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
